--- a/curvefit/VAE/cv_SANS/S5.xlsx
+++ b/curvefit/VAE/cv_SANS/S5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\Project\contrast_variation\cv_SANS\curvefit\VAE\cv_SANS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B597493-AA0F-4AF3-A31C-70360CB91067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92FE581-7EFD-419D-80BF-034DBCB640BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{37BAC6F9-706E-46F8-86F4-8BA689A019F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37BAC6F9-706E-46F8-86F4-8BA689A019F1}"/>
   </bookViews>
   <sheets>
     <sheet name="S(Q)" sheetId="1" r:id="rId1"/>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A7B71E-80D7-40D2-8AF6-78A765241BB8}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -459,882 +459,1201 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.2</v>
+        <v>0.51468897000000002</v>
       </c>
       <c r="B2" s="1">
-        <v>0.2</v>
+        <v>5.5233388999999999E-3</v>
       </c>
       <c r="C2" s="1">
-        <v>4.8741195350885301E-2</v>
+        <v>7.2092522298271206E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.4</v>
+        <v>0.53091155999999995</v>
       </c>
       <c r="B3" s="1">
-        <v>0.4</v>
+        <v>5.6974301000000003E-3</v>
       </c>
       <c r="C3" s="1">
-        <v>5.5447362363338401E-2</v>
+        <v>7.2104831094698202E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.59999999999999898</v>
+        <v>0.54764526999999996</v>
       </c>
       <c r="B4" s="1">
-        <v>0.59999999999999898</v>
+        <v>5.8770068E-3</v>
       </c>
       <c r="C4" s="1">
-        <v>6.06311447918415E-2</v>
+        <v>7.2117527732556697E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.8</v>
+        <v>0.56490660000000004</v>
       </c>
       <c r="B5" s="1">
-        <v>0.8</v>
+        <v>6.062245E-3</v>
       </c>
       <c r="C5" s="1">
-        <v>6.6250488162040697E-2</v>
+        <v>7.2130624657013198E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0.58271194000000004</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>6.2533212000000001E-3</v>
       </c>
       <c r="C6" s="1">
-        <v>7.0554010570049203E-2</v>
+        <v>7.2144134346158004E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1.19999999999999</v>
+        <v>0.60107845000000004</v>
       </c>
       <c r="B7" s="1">
-        <v>1.19999999999999</v>
+        <v>6.4504198E-3</v>
       </c>
       <c r="C7" s="1">
-        <v>7.9079464077949496E-2</v>
+        <v>7.2167089917621205E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1.3999999999999899</v>
+        <v>0.62002391000000001</v>
       </c>
       <c r="B8" s="1">
-        <v>1.3999999999999899</v>
+        <v>6.6537311999999996E-3</v>
       </c>
       <c r="C8" s="1">
-        <v>8.6882367730140603E-2</v>
+        <v>7.2339924689918803E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1.6</v>
+        <v>0.63956641999999997</v>
       </c>
       <c r="B9" s="1">
-        <v>1.6</v>
+        <v>6.8634502000000002E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>9.5987267792224801E-2</v>
+        <v>7.2518206468379504E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1.8</v>
+        <v>0.65972500999999995</v>
       </c>
       <c r="B10" s="1">
-        <v>1.8</v>
+        <v>7.0797801000000004E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>0.105856709182262</v>
+        <v>7.2702108242951799E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>0.68051887</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>7.3029278000000001E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>0.12025311589241</v>
+        <v>7.2891805774590396E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2.2000000000000002</v>
+        <v>0.70196813000000002</v>
       </c>
       <c r="B12" s="1">
-        <v>2.2000000000000002</v>
+        <v>7.5331087999999996E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>0.13598944246768899</v>
+        <v>7.3087482345552096E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2.3999999999999901</v>
+        <v>0.72409349999999995</v>
       </c>
       <c r="B13" s="1">
-        <v>2.3999999999999901</v>
+        <v>7.7705448000000002E-3</v>
       </c>
       <c r="C13" s="1">
-        <v>0.154688671231269</v>
+        <v>7.3289326384247802E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2.6</v>
+        <v>0.74691629000000004</v>
       </c>
       <c r="B14" s="1">
-        <v>2.6</v>
+        <v>8.0154658999999993E-3</v>
       </c>
       <c r="C14" s="1">
-        <v>0.17506663501262601</v>
+        <v>7.3497533444532401E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2.7999999999999901</v>
+        <v>0.77045839999999999</v>
       </c>
       <c r="B15" s="1">
-        <v>2.7999999999999901</v>
+        <v>8.2681057999999998E-3</v>
       </c>
       <c r="C15" s="1">
-        <v>0.203036159276962</v>
+        <v>7.3712302247124994E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>3</v>
+        <v>0.79474241000000001</v>
       </c>
       <c r="B16" s="1">
-        <v>3</v>
+        <v>8.5287074999999997E-3</v>
       </c>
       <c r="C16" s="1">
-        <v>0.237559840083122</v>
+        <v>7.3933839429904794E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>3.2</v>
+        <v>0.81979203</v>
       </c>
       <c r="B17" s="1">
-        <v>3.2</v>
+        <v>8.7975254000000006E-3</v>
       </c>
       <c r="C17" s="1">
-        <v>0.27675938606262201</v>
+        <v>7.4327902090364106E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>3.3999999999999901</v>
+        <v>0.84563105999999999</v>
       </c>
       <c r="B18" s="1">
-        <v>3.3999999999999901</v>
+        <v>9.0748145999999998E-3</v>
       </c>
       <c r="C18" s="1">
-        <v>0.323884427547454</v>
+        <v>7.4779743171186602E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>3.6</v>
+        <v>0.87228459000000003</v>
       </c>
       <c r="B19" s="1">
-        <v>3.6</v>
+        <v>9.3608443000000006E-3</v>
       </c>
       <c r="C19" s="1">
-        <v>0.38257828354835499</v>
+        <v>7.5245826783315303E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>3.7999999999999901</v>
+        <v>0.89977812999999995</v>
       </c>
       <c r="B20" s="1">
-        <v>3.7999999999999901</v>
+        <v>9.6558891000000004E-3</v>
       </c>
       <c r="C20" s="1">
-        <v>0.45727282762527399</v>
+        <v>7.5726600614202E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>4</v>
+        <v>0.92813838000000004</v>
       </c>
       <c r="B21" s="1">
-        <v>4</v>
+        <v>9.9602341999999993E-3</v>
       </c>
       <c r="C21" s="1">
-        <v>0.541756451129913</v>
+        <v>7.6222529044728995E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>4.2</v>
+        <v>0.95739227999999998</v>
       </c>
       <c r="B22" s="1">
-        <v>4.2</v>
+        <v>1.0274169999999999E-2</v>
       </c>
       <c r="C22" s="1">
-        <v>0.64759951829910201</v>
+        <v>7.67340855612859E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>4.4000000000000004</v>
+        <v>0.98756820000000001</v>
       </c>
       <c r="B23" s="1">
-        <v>4.4000000000000004</v>
+        <v>1.0598E-2</v>
       </c>
       <c r="C23" s="1">
-        <v>0.76860237121581998</v>
+        <v>7.7261764896446802E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>4.5999999999999899</v>
+        <v>1.0186955</v>
       </c>
       <c r="B24" s="1">
-        <v>4.5999999999999899</v>
+        <v>1.0932040000000001E-2</v>
       </c>
       <c r="C24" s="1">
-        <v>0.91695010662078802</v>
+        <v>7.7962451145701703E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>4.7999999999999901</v>
+        <v>1.0508040000000001</v>
       </c>
       <c r="B25" s="1">
-        <v>4.7999999999999901</v>
+        <v>1.1276609999999999E-2</v>
       </c>
       <c r="C25" s="1">
-        <v>1.0880167484283401</v>
+        <v>7.8792481699728703E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>5</v>
+        <v>1.0839245</v>
       </c>
       <c r="B26" s="1">
-        <v>5</v>
+        <v>1.163204E-2</v>
       </c>
       <c r="C26" s="1">
-        <v>1.2505013942718499</v>
+        <v>7.9648673160970795E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>5.2</v>
+        <v>1.1180886999999999</v>
       </c>
       <c r="B27" s="1">
-        <v>5.2</v>
+        <v>1.1998669999999999E-2</v>
       </c>
       <c r="C27" s="1">
-        <v>1.3498883247375399</v>
+        <v>8.0531844389828702E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>5.4</v>
+        <v>1.1533291000000001</v>
       </c>
       <c r="B28" s="1">
-        <v>5.4</v>
+        <v>1.237685E-2</v>
       </c>
       <c r="C28" s="1">
-        <v>1.39311718940734</v>
+        <v>8.1442836681234601E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>5.5999999999999899</v>
+        <v>1.1896814</v>
       </c>
       <c r="B29" s="1">
-        <v>5.5999999999999899</v>
+        <v>1.2766960000000001E-2</v>
       </c>
       <c r="C29" s="1">
-        <v>1.4117505550384499</v>
+        <v>8.2382569850981399E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>5.7999999999999901</v>
+        <v>1.2271787999999999</v>
       </c>
       <c r="B30" s="1">
-        <v>5.7999999999999901</v>
+        <v>1.316936E-2</v>
       </c>
       <c r="C30" s="1">
-        <v>1.3709896802902199</v>
+        <v>8.3473836525527104E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>6</v>
+        <v>1.2658586999999999</v>
       </c>
       <c r="B31" s="1">
-        <v>6</v>
+        <v>1.358445E-2</v>
       </c>
       <c r="C31" s="1">
-        <v>1.3196768760681099</v>
+        <v>8.4647265905836905E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>6.2</v>
+        <v>1.3057574000000001</v>
       </c>
       <c r="B32" s="1">
-        <v>6.2</v>
+        <v>1.401262E-2</v>
       </c>
       <c r="C32" s="1">
-        <v>1.2487423419952299</v>
+        <v>8.5857672743234206E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>6.4</v>
+        <v>1.3469133</v>
       </c>
       <c r="B33" s="1">
-        <v>6.4</v>
+        <v>1.445428E-2</v>
       </c>
       <c r="C33" s="1">
-        <v>1.16394019126892</v>
+        <v>8.7106215462861E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>6.5999999999999899</v>
+        <v>1.3893671000000001</v>
       </c>
       <c r="B34" s="1">
-        <v>6.5999999999999899</v>
+        <v>1.490987E-2</v>
       </c>
       <c r="C34" s="1">
-        <v>1.10079622268676</v>
+        <v>8.8394136738960405E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>6.7999999999999901</v>
+        <v>1.4331582</v>
       </c>
       <c r="B35" s="1">
-        <v>6.7999999999999901</v>
+        <v>1.5379810000000001E-2</v>
       </c>
       <c r="C35" s="1">
-        <v>1.0374326705932599</v>
+        <v>9.0149410792927501E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7</v>
+        <v>1.4783303000000001</v>
       </c>
       <c r="B36" s="1">
-        <v>7</v>
+        <v>1.5864570000000001E-2</v>
       </c>
       <c r="C36" s="1">
-        <v>1.00098752975463</v>
+        <v>9.21012133316053E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7.2</v>
+        <v>1.5249261999999999</v>
       </c>
       <c r="B37" s="1">
-        <v>7.2</v>
+        <v>1.6364610000000002E-2</v>
       </c>
       <c r="C37" s="1">
-        <v>0.96377736330032304</v>
+        <v>9.4114539008784803E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7.4</v>
+        <v>1.5729898</v>
       </c>
       <c r="B38" s="1">
-        <v>7.4</v>
+        <v>1.68804E-2</v>
       </c>
       <c r="C38" s="1">
-        <v>0.93568819761276201</v>
+        <v>9.6191281478695406E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7.5999999999999899</v>
+        <v>1.6225693999999999</v>
       </c>
       <c r="B39" s="1">
-        <v>7.5999999999999899</v>
+        <v>1.7412459000000002E-2</v>
       </c>
       <c r="C39" s="1">
-        <v>0.92554867267608598</v>
+        <v>9.8522040073717607E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7.7999999999999901</v>
+        <v>1.6737108999999999</v>
       </c>
       <c r="B40" s="1">
-        <v>7.7999999999999901</v>
+        <v>1.796128E-2</v>
       </c>
       <c r="C40" s="1">
-        <v>0.90921956300735396</v>
+        <v>0.10115894043126999</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>8</v>
+        <v>1.7264645000000001</v>
       </c>
       <c r="B41" s="1">
-        <v>8</v>
+        <v>1.8527399999999999E-2</v>
       </c>
       <c r="C41" s="1">
-        <v>0.90597987174987704</v>
+        <v>0.103878953723058</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>8.1999999999999904</v>
+        <v>1.7808813999999999</v>
       </c>
       <c r="B42" s="1">
-        <v>8.1999999999999904</v>
+        <v>1.9111370999999999E-2</v>
       </c>
       <c r="C42" s="1">
-        <v>0.90613770484924305</v>
+        <v>0.106684737916289</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>8.4</v>
+        <v>1.8370128999999999</v>
       </c>
       <c r="B43" s="1">
-        <v>8.4</v>
+        <v>1.9713741E-2</v>
       </c>
       <c r="C43" s="1">
-        <v>0.90939712524413996</v>
+        <v>0.10990965530372999</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>8.5999999999999908</v>
+        <v>1.8949138999999999</v>
       </c>
       <c r="B44" s="1">
-        <v>8.5999999999999908</v>
+        <v>2.0335101000000001E-2</v>
       </c>
       <c r="C44" s="1">
-        <v>0.90937209129333396</v>
+        <v>0.113412458505855</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>8.8000000000000007</v>
+        <v>1.9546403999999999</v>
       </c>
       <c r="B45" s="1">
-        <v>8.8000000000000007</v>
+        <v>2.097605E-2</v>
       </c>
       <c r="C45" s="1">
-        <v>0.92459994554519598</v>
+        <v>0.11702569361923799</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>9</v>
+        <v>2.0162485000000001</v>
       </c>
       <c r="B46" s="1">
-        <v>9</v>
+        <v>2.1637190000000001E-2</v>
       </c>
       <c r="C46" s="1">
-        <v>0.93275910615920998</v>
+        <v>0.120885337992248</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>9.1999999999999904</v>
+        <v>2.0797981999999999</v>
       </c>
       <c r="B47" s="1">
-        <v>9.1999999999999904</v>
+        <v>2.2319169999999999E-2</v>
       </c>
       <c r="C47" s="1">
-        <v>0.94895601272582997</v>
+        <v>0.125248436769307</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>9.4</v>
+        <v>2.1453516000000001</v>
       </c>
       <c r="B48" s="1">
-        <v>9.4</v>
+        <v>2.3022649999999999E-2</v>
       </c>
       <c r="C48" s="1">
-        <v>0.96051394939422596</v>
+        <v>0.129749089315287</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>9.5999999999999908</v>
+        <v>2.2129718999999999</v>
       </c>
       <c r="B49" s="1">
-        <v>9.5999999999999908</v>
+        <v>2.3748310000000002E-2</v>
       </c>
       <c r="C49" s="1">
-        <v>0.97420454025268499</v>
+        <v>0.13455360859892301</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>9.8000000000000007</v>
+        <v>2.2827220000000001</v>
       </c>
       <c r="B50" s="1">
-        <v>9.8000000000000007</v>
+        <v>2.4496829000000001E-2</v>
       </c>
       <c r="C50" s="1">
-        <v>0.99690920114517201</v>
+        <v>0.14021329178867101</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>10</v>
+        <v>2.3546716999999999</v>
       </c>
       <c r="B51" s="1">
-        <v>10</v>
+        <v>2.5268949999999998E-2</v>
       </c>
       <c r="C51" s="1">
-        <v>1.00129902362823</v>
+        <v>0.14605143066599399</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>10.1999999999999</v>
+        <v>2.4288883000000001</v>
       </c>
       <c r="B52" s="1">
-        <v>10.1999999999999</v>
+        <v>2.6065399999999999E-2</v>
       </c>
       <c r="C52" s="1">
-        <v>1.02217710018157</v>
+        <v>0.15258357297437999</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>10.4</v>
+        <v>2.5054449999999999</v>
       </c>
       <c r="B53" s="1">
-        <v>10.4</v>
+        <v>2.6886960000000001E-2</v>
       </c>
       <c r="C53" s="1">
-        <v>1.03063952922821</v>
+        <v>0.16014718755212301</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>10.5999999999999</v>
+        <v>2.5844140000000002</v>
       </c>
       <c r="B54" s="1">
-        <v>10.5999999999999</v>
+        <v>2.7734410000000001E-2</v>
       </c>
       <c r="C54" s="1">
-        <v>1.02638304233551</v>
+        <v>0.16794914570873001</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>10.8</v>
+        <v>2.6658721000000001</v>
       </c>
       <c r="B55" s="1">
-        <v>10.8</v>
+        <v>2.860857E-2</v>
       </c>
       <c r="C55" s="1">
-        <v>1.0315016508102399</v>
+        <v>0.17792983209730201</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>11</v>
+        <v>2.7498974999999999</v>
       </c>
       <c r="B56" s="1">
-        <v>11</v>
+        <v>2.951028E-2</v>
       </c>
       <c r="C56" s="1">
-        <v>1.0358852148055999</v>
+        <v>0.18869680858676099</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>11.1999999999999</v>
+        <v>2.8365719</v>
       </c>
       <c r="B57" s="1">
-        <v>11.1999999999999</v>
+        <v>3.0440419999999999E-2</v>
       </c>
       <c r="C57" s="1">
-        <v>1.0325579643249501</v>
+        <v>0.20043017229844201</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>11.4</v>
+        <v>2.8829527000000001</v>
       </c>
       <c r="B58" s="1">
-        <v>11.4</v>
+        <v>3.0938150000000001E-2</v>
       </c>
       <c r="C58" s="1">
-        <v>1.02956974506378</v>
+        <v>0.20716844369698301</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>11.5999999999999</v>
+        <v>2.9259776999999998</v>
       </c>
       <c r="B59" s="1">
-        <v>11.5999999999999</v>
+        <v>3.1399867999999997E-2</v>
       </c>
       <c r="C59" s="1">
-        <v>1.0248498916625901</v>
+        <v>0.213419179724573</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>11.8</v>
+        <v>2.9873378000000002</v>
       </c>
       <c r="B60" s="1">
-        <v>11.8</v>
+        <v>3.2058350999999999E-2</v>
       </c>
       <c r="C60" s="1">
-        <v>1.0162307024002</v>
+        <v>0.22233370875832401</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>12</v>
+        <v>3.0182023</v>
       </c>
       <c r="B61" s="1">
-        <v>12</v>
+        <v>3.2389569999999999E-2</v>
       </c>
       <c r="C61" s="1">
-        <v>1.0143563747405999</v>
+        <v>0.227437668626565</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>12.1999999999999</v>
+        <v>3.0955013999999998</v>
       </c>
       <c r="B62" s="1">
-        <v>12.1999999999999</v>
+        <v>3.3219099000000002E-2</v>
       </c>
       <c r="C62" s="1">
-        <v>1.00933372974395</v>
+        <v>0.241300394316701</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>12.4</v>
+        <v>3.1133335</v>
       </c>
       <c r="B63" s="1">
-        <v>12.4</v>
+        <v>3.3410460000000003E-2</v>
       </c>
       <c r="C63" s="1">
-        <v>1.0060175657272299</v>
+        <v>0.24449833074086599</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>12.5999999999999</v>
+        <v>3.2075830000000001</v>
       </c>
       <c r="B64" s="1">
-        <v>12.5999999999999</v>
+        <v>3.4421891000000003E-2</v>
       </c>
       <c r="C64" s="1">
-        <v>0.99537229537963801</v>
+        <v>0.26177484601370499</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>12.8</v>
+        <v>3.2114623</v>
       </c>
       <c r="B65" s="1">
-        <v>12.8</v>
+        <v>3.4463520999999997E-2</v>
       </c>
       <c r="C65" s="1">
-        <v>0.99312508106231601</v>
+        <v>0.26266183976381102</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>13</v>
+        <v>3.3237214000000002</v>
       </c>
       <c r="B66" s="1">
-        <v>13</v>
+        <v>3.566822E-2</v>
       </c>
       <c r="C66" s="1">
-        <v>0.99352502822875899</v>
+        <v>0.28832981174448702</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>13.1999999999999</v>
+        <v>3.4440653000000001</v>
       </c>
       <c r="B67" s="1">
-        <v>13.1999999999999</v>
+        <v>3.6959682000000001E-2</v>
       </c>
       <c r="C67" s="1">
-        <v>0.99007254838943404</v>
+        <v>0.318554135680298</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>13.4</v>
+        <v>3.5687663999999999</v>
       </c>
       <c r="B68" s="1">
-        <v>13.4</v>
+        <v>3.8297899000000003E-2</v>
       </c>
       <c r="C68" s="1">
-        <v>0.98819905519485396</v>
+        <v>0.35472960261880099</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>13.5999999999999</v>
+        <v>3.6979833000000002</v>
       </c>
       <c r="B69" s="1">
-        <v>13.5999999999999</v>
+        <v>3.9684578999999998E-2</v>
       </c>
       <c r="C69" s="1">
-        <v>0.98659837245941095</v>
+        <v>0.39939448901723301</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>13.8</v>
+        <v>3.8318781999999998</v>
       </c>
       <c r="B70" s="1">
-        <v>13.8</v>
+        <v>4.1121459999999999E-2</v>
       </c>
       <c r="C70" s="1">
-        <v>0.99219459295272805</v>
+        <v>0.45172955540982102</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>14</v>
+        <v>3.9706212999999999</v>
       </c>
       <c r="B71" s="1">
-        <v>14</v>
+        <v>4.2610370000000002E-2</v>
       </c>
       <c r="C71" s="1">
-        <v>0.99154585599899203</v>
+        <v>0.51816870901635903</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>14.1999999999999</v>
+        <v>4.1143884999999996</v>
       </c>
       <c r="B72" s="1">
-        <v>14.1999999999999</v>
+        <v>4.4153191000000001E-2</v>
       </c>
       <c r="C72" s="1">
-        <v>0.98975247144698997</v>
+        <v>0.60521599830297301</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>14.4</v>
+        <v>4.2633599999999996</v>
       </c>
       <c r="B73" s="1">
-        <v>14.4</v>
+        <v>4.575187E-2</v>
       </c>
       <c r="C73" s="1">
-        <v>0.99154084920883101</v>
+        <v>0.70963737226114398</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>14.5999999999999</v>
+        <v>4.417726</v>
       </c>
       <c r="B74" s="1">
-        <v>14.5999999999999</v>
+        <v>4.7408432E-2</v>
       </c>
       <c r="C74" s="1">
-        <v>0.99475848674774103</v>
+        <v>0.83187985607125803</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>14.8</v>
+        <v>4.5776811000000004</v>
       </c>
       <c r="B75" s="1">
-        <v>14.8</v>
+        <v>4.9124978E-2</v>
       </c>
       <c r="C75" s="1">
-        <v>1.00144875049591</v>
+        <v>0.96581376942960395</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>15</v>
+        <v>4.7434286999999999</v>
       </c>
       <c r="B76" s="1">
-        <v>15</v>
+        <v>5.0903681999999999E-2</v>
       </c>
       <c r="C76" s="1">
-        <v>1.00424551963806</v>
+        <v>1.10521559072176</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>15.1999999999999</v>
+        <v>4.9151764</v>
       </c>
       <c r="B77" s="1">
-        <v>15.1999999999999</v>
+        <v>5.274678E-2</v>
       </c>
       <c r="C77" s="1">
-        <v>1.00573635101318</v>
+        <v>1.2380892629818701</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>15.4</v>
+        <v>5.0931430000000004</v>
       </c>
       <c r="B78" s="1">
-        <v>15.4</v>
+        <v>5.4656610000000001E-2</v>
       </c>
       <c r="C78" s="1">
-        <v>0.99696904420852595</v>
+        <v>1.3518360470259601</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>15.5999999999999</v>
+        <v>5.2775540000000003</v>
       </c>
       <c r="B79" s="1">
-        <v>15.5999999999999</v>
+        <v>5.6635600000000001E-2</v>
       </c>
       <c r="C79" s="1">
-        <v>1.00142645835876</v>
+        <v>1.4337945828300001</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>15.8</v>
+        <v>5.4686408000000002</v>
       </c>
       <c r="B80" s="1">
-        <v>15.8</v>
+        <v>5.8686229999999999E-2</v>
       </c>
       <c r="C80" s="1">
-        <v>1.00170314311981</v>
+        <v>1.4711599715758299</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>16</v>
+        <v>5.6666473999999996</v>
       </c>
       <c r="B81" s="1">
-        <v>16</v>
+        <v>6.0811121000000003E-2</v>
       </c>
       <c r="C81" s="1">
-        <v>1.00095391273498</v>
+        <v>1.45486696177844</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>5.8718233</v>
+      </c>
+      <c r="B82">
+        <v>6.3012949999999998E-2</v>
+      </c>
+      <c r="C82">
+        <v>1.3910338783823</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>6.0844274</v>
+      </c>
+      <c r="B83">
+        <v>6.5294488999999997E-2</v>
+      </c>
+      <c r="C83">
+        <v>1.2970446528484001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>6.3047298999999999</v>
+      </c>
+      <c r="B84">
+        <v>6.7658648000000002E-2</v>
+      </c>
+      <c r="C84">
+        <v>1.1934233376543499</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>6.53301</v>
+      </c>
+      <c r="B85">
+        <v>7.0108413999999994E-2</v>
+      </c>
+      <c r="C85">
+        <v>1.09018671894682</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>6.7695531999999998</v>
+      </c>
+      <c r="B86">
+        <v>7.2646855999999996E-2</v>
+      </c>
+      <c r="C86">
+        <v>1.0042878347401201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>7.0146632000000002</v>
+      </c>
+      <c r="B87">
+        <v>7.5277231999999999E-2</v>
+      </c>
+      <c r="C87">
+        <v>0.94278977796076502</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>7.2686472000000002</v>
+      </c>
+      <c r="B88">
+        <v>7.8002840000000004E-2</v>
+      </c>
+      <c r="C88">
+        <v>0.90449944822471195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>7.5318278999999997</v>
+      </c>
+      <c r="B89">
+        <v>8.0827139000000006E-2</v>
+      </c>
+      <c r="C89">
+        <v>0.883258563931275</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>7.8045368000000002</v>
+      </c>
+      <c r="B90">
+        <v>8.3753690000000006E-2</v>
+      </c>
+      <c r="C90">
+        <v>0.87353916076153704</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>8.0871200999999999</v>
+      </c>
+      <c r="B91">
+        <v>8.6786211000000002E-2</v>
+      </c>
+      <c r="C91">
+        <v>0.87658097512015898</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>8.3799352999999996</v>
+      </c>
+      <c r="B92">
+        <v>8.9928530000000007E-2</v>
+      </c>
+      <c r="C92">
+        <v>0.89043867496933304</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>8.6833524999999998</v>
+      </c>
+      <c r="B93">
+        <v>9.3184628000000005E-2</v>
+      </c>
+      <c r="C93">
+        <v>0.91561268974038601</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>8.997757</v>
+      </c>
+      <c r="B94">
+        <v>9.6558622999999996E-2</v>
+      </c>
+      <c r="C94">
+        <v>0.94605279027140798</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>9.3235454999999998</v>
+      </c>
+      <c r="B95">
+        <v>0.1000548</v>
+      </c>
+      <c r="C95">
+        <v>0.97651732457337304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>9.6611241999999997</v>
+      </c>
+      <c r="B96">
+        <v>0.10367750000000001</v>
+      </c>
+      <c r="C96">
+        <v>1.00531447836843</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>10.010929000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.1074314</v>
+      </c>
+      <c r="C97">
+        <v>1.0286064170804601</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>10.373407</v>
+      </c>
+      <c r="B98">
+        <v>0.1113213</v>
+      </c>
+      <c r="C98">
+        <v>1.04246633810657</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>10.748996999999999</v>
+      </c>
+      <c r="B99">
+        <v>0.11535189999999999</v>
+      </c>
+      <c r="C99">
+        <v>1.0467186101626</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>11.138199999999999</v>
+      </c>
+      <c r="B100">
+        <v>0.1195286</v>
+      </c>
+      <c r="C100">
+        <v>1.0417388595254899</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>11.541484000000001</v>
+      </c>
+      <c r="B101">
+        <v>0.12385640000000001</v>
+      </c>
+      <c r="C101">
+        <v>1.0272593049113901</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>11.959369000000001</v>
+      </c>
+      <c r="B102">
+        <v>0.12834090000000001</v>
+      </c>
+      <c r="C102">
+        <v>1.0105240688327</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>12.392397000000001</v>
+      </c>
+      <c r="B103">
+        <v>0.13298789999999999</v>
+      </c>
+      <c r="C103">
+        <v>0.99521936874383599</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>12.841089</v>
+      </c>
+      <c r="B104">
+        <v>0.13780300000000001</v>
+      </c>
+      <c r="C104">
+        <v>0.98312000200510097</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>13.306031000000001</v>
+      </c>
+      <c r="B105">
+        <v>0.14279248999999999</v>
+      </c>
+      <c r="C105">
+        <v>0.97652479269572501</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>13.787813999999999</v>
+      </c>
+      <c r="B106">
+        <v>0.1479627</v>
+      </c>
+      <c r="C106">
+        <v>0.98139364613247304</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>14.287041</v>
+      </c>
+      <c r="B107">
+        <v>0.15332009999999999</v>
+      </c>
+      <c r="C107">
+        <v>0.99754690269757496</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>14.804335</v>
+      </c>
+      <c r="B108">
+        <v>0.1588714</v>
+      </c>
+      <c r="C108">
+        <v>1.0074311372411999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>15.340368</v>
+      </c>
+      <c r="B109">
+        <v>0.16462379999999999</v>
+      </c>
+      <c r="C109">
+        <v>1.01172040492576</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>15.895803000000001</v>
+      </c>
+      <c r="B110">
+        <v>0.1705844</v>
+      </c>
+      <c r="C110">
+        <v>1.01111590774477</v>
       </c>
     </row>
   </sheetData>
@@ -58452,7 +58771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8840F7E2-5CE9-4EF6-AC84-B046389B09EF}">
   <dimension ref="A1:C1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C1001"/>
     </sheetView>
   </sheetViews>
